--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2808158.604345973</v>
+        <v>2803854.264536105</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8800809.810492754</v>
+        <v>8800809.810492752</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>227.9187527607133</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39.92287474145482</v>
       </c>
       <c r="H3" t="n">
-        <v>76.08554741387353</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>158.7773581707422</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.2786202004587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,64 +907,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>180.962442479936</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>41.83793039412784</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>178.3777805434741</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>260.5167087883574</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>237.7119070904499</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>4.488964098698376</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465056</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098966</v>
       </c>
       <c r="V9" t="n">
-        <v>231.0241379848939</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>157.7555188863361</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>200.6580377122639</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>274.1357181000197</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.05158559392623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.3471710336506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833203</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0177171766856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>178.2798710842933</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,13 +2848,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>32.47207866589224</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>20.22544352992964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>120.6127326838975</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946889</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946889</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D2" t="n">
-        <v>900.5447187946889</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>670.32375641013</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4336,7 +4336,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>833.1938928750989</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>403.723211675533</v>
+        <v>235.8762757837271</v>
       </c>
       <c r="C3" t="n">
-        <v>403.723211675533</v>
+        <v>61.42324650260011</v>
       </c>
       <c r="D3" t="n">
-        <v>403.723211675533</v>
+        <v>61.42324650260011</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4857566700775</v>
+        <v>61.42324650260011</v>
       </c>
       <c r="F3" t="n">
-        <v>97.95119869696245</v>
+        <v>61.42324650260011</v>
       </c>
       <c r="G3" t="n">
-        <v>97.95119869696245</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>611.5747118810658</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>611.5747118810658</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>611.5747118810658</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="X3" t="n">
-        <v>403.723211675533</v>
+        <v>611.8519115687491</v>
       </c>
       <c r="Y3" t="n">
-        <v>403.723211675533</v>
+        <v>404.0916128037952</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434483</v>
+        <v>645.2175042777675</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434483</v>
+        <v>476.2813213498606</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434483</v>
+        <v>476.2813213498606</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>328.3682277674675</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>181.4782802695571</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>823.7613552745876</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3836987074096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>302.6992105015228</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>36.32155393434483</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434483</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434483</v>
+        <v>826.8659691080072</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.7364457822814</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>586.7364457822814</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>586.7364457822814</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>586.7364457822814</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.7364457822814</v>
+        <v>255.7225503044907</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.126243926395</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289999</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557296</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>994.2591004611704</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>797.450022092608</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>569.3141761294215</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>334.1620678976788</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>334.1620678976788</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>334.1620678976788</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>334.1620678976788</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.6273447026937</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>313.6273447026937</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4731,13 +4731,13 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075543</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092332</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>313.6273447026937</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>313.6273447026937</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>313.6273447026937</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="X7" t="n">
-        <v>313.6273447026937</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.6273447026937</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1874.309276588294</v>
+        <v>1692.922028516204</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.196239123193</v>
+        <v>1692.922028516204</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.196239123193</v>
+        <v>1334.656329909453</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>948.8680773112089</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353408</v>
+        <v>537.8821725216014</v>
       </c>
       <c r="G8" t="n">
-        <v>421.715859727008</v>
+        <v>122.1759505132686</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607416</v>
+        <v>442.1757437607408</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045901</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762135</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858408</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858408</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858408</v>
+        <v>2435.83001576213</v>
       </c>
       <c r="W8" t="n">
-        <v>1874.309276588294</v>
+        <v>2083.061360492015</v>
       </c>
       <c r="X8" t="n">
-        <v>1874.309276588294</v>
+        <v>2083.061360492015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1874.309276588294</v>
+        <v>1692.922028516204</v>
       </c>
     </row>
     <row r="9">
@@ -4877,46 +4877,46 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507234</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442753</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>1091.982190524996</v>
+        <v>854.4423223907506</v>
       </c>
       <c r="M9" t="n">
-        <v>1455.048658999297</v>
+        <v>1217.508790865051</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471866</v>
+        <v>1604.59319333762</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459255</v>
+        <v>1936.480003325008</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.05522988888</v>
+        <v>2445.345361789032</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685346</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751576</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368606615319</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.731241025456</v>
+        <v>824.4161276034988</v>
       </c>
       <c r="C10" t="n">
-        <v>621.731241025456</v>
+        <v>655.4799446755919</v>
       </c>
       <c r="D10" t="n">
-        <v>621.731241025456</v>
+        <v>505.3633052632562</v>
       </c>
       <c r="E10" t="n">
-        <v>473.818147443063</v>
+        <v>357.450211680863</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>210.5602641829527</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380142</v>
+        <v>76.63468308380119</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676566</v>
+        <v>248.2500215676562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368917</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904032</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634453</v>
+        <v>1336.515802634452</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108858</v>
+        <v>1113.534501108857</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035004</v>
+        <v>824.4161276034988</v>
       </c>
       <c r="V10" t="n">
-        <v>824.4161276035004</v>
+        <v>824.4161276034988</v>
       </c>
       <c r="W10" t="n">
-        <v>621.731241025456</v>
+        <v>824.4161276034988</v>
       </c>
       <c r="X10" t="n">
-        <v>621.731241025456</v>
+        <v>824.4161276034988</v>
       </c>
       <c r="Y10" t="n">
-        <v>621.731241025456</v>
+        <v>824.4161276034988</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5059,10 +5059,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1700.556314752913</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.871826547026</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.454656510065</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
         <v>484.8112968429803</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6457,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>665.5244698858705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>517.6113763034774</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,10 +7447,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7630,64 +7630,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591808</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>4517.069482196493</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127278</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>113.848225401252</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094953</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348527</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>60.33736343303703</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>12.04875628922446</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.5330677581686</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.4848091482867</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.41624546988362</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>73.85777223953465</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>112.948969357039</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>147.0213775686982</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>28.00274033431481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442547</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580787</v>
+        <v>390680.0076580774</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606937</v>
+        <v>507909.2320606947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101757</v>
+        <v>95270.23779101725</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555025</v>
+        <v>139261.6527555029</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,7 +26432,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26444,10 +26444,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26456,10 +26456,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678118</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567884</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>363978.990958905</v>
       </c>
       <c r="D6" t="n">
-        <v>54514.93214877331</v>
+        <v>54514.93214877449</v>
       </c>
       <c r="E6" t="n">
-        <v>46307.09457287299</v>
+        <v>45959.71531851507</v>
       </c>
       <c r="F6" t="n">
-        <v>554216.326633567</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="G6" t="n">
-        <v>554216.3266335666</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="H6" t="n">
-        <v>554216.3266335664</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="I6" t="n">
-        <v>554216.3266335664</v>
+        <v>553868.9473792097</v>
       </c>
       <c r="J6" t="n">
-        <v>485217.1722144524</v>
+        <v>484869.7929600956</v>
       </c>
       <c r="K6" t="n">
-        <v>554216.3266335668</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="L6" t="n">
-        <v>458946.088842549</v>
+        <v>458598.7095881922</v>
       </c>
       <c r="M6" t="n">
-        <v>421498.3509380973</v>
+        <v>421150.9716837399</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335665</v>
+        <v>553868.9473792095</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335665</v>
+        <v>553868.9473792095</v>
       </c>
       <c r="P6" t="n">
-        <v>554216.3266335664</v>
+        <v>553868.9473792093</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627826</v>
+        <v>933.7024595627815</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856955</v>
+        <v>640.1406900856942</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933033</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139531</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841881</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>154.0116173115485</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>108.3072476105185</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>96.09984484496863</v>
       </c>
       <c r="H3" t="n">
-        <v>23.39377285733623</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>8.10630886780433</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>121.9357256791072</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.9136032617754</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>105.3120050180709</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>107.8808499592034</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>26.00628954823361</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>127.5609846805577</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>296.5445101216021</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164536331</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164531357</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.551734725370068</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>85.8649606243271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-2.783552356557516e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885555</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954667</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763188</v>
+        <v>477.4691627763183</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354928</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359937</v>
+        <v>659.0954050359931</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525066</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230789</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983019</v>
+        <v>539.7691690983013</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140458</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026267</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617164</v>
+        <v>508.8678404617159</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152212</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947584</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133933</v>
+        <v>8.095024154133924</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307411</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942748</v>
+        <v>7.19410091794274</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865033</v>
+        <v>0.0918395861865032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0011860883002</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705669</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313382</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655055</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.749171808721</v>
+        <v>428.7491718087203</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559157</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091023</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430323</v>
+        <v>308.5361733430317</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797633</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234284</v>
+        <v>20.20013907234258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816846</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>450.9268494884359</v>
       </c>
       <c r="L9" t="n">
-        <v>411.3593197785057</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396981</v>
+        <v>366.7338065396976</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318879</v>
+        <v>390.9943459318873</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074637</v>
+        <v>335.2392020074632</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804285</v>
+        <v>514.0054125899235</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783569</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873311</v>
+        <v>25.68023017873298</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>57.65947400496688</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2803854.264536105</v>
+        <v>2805614.794838891</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>219.4450108596164</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>39.92287474145482</v>
+        <v>21.02627191808392</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.7773581707422</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.16188515253003</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>110.096520216718</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015061</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>11.87502788573329</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>260.5167087883574</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>84.49202462130222</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824948</v>
       </c>
       <c r="H8" t="n">
-        <v>4.488964098698376</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.2497997611522</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>132.6026661256541</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052098966</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.7555188863361</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>110.6445597618547</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>20.9284728855285</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>104.4262124629293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>178.2798710842933</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
@@ -4330,19 +4330,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>833.1938928750989</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>833.1938928750989</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>833.1938928750989</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>833.1938928750989</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.8762757837271</v>
+        <v>671.4952208241843</v>
       </c>
       <c r="C3" t="n">
-        <v>61.42324650260011</v>
+        <v>497.0421915430574</v>
       </c>
       <c r="D3" t="n">
-        <v>61.42324650260011</v>
+        <v>348.1077818818061</v>
       </c>
       <c r="E3" t="n">
-        <v>61.42324650260011</v>
+        <v>188.8703268763506</v>
       </c>
       <c r="F3" t="n">
-        <v>61.42324650260011</v>
+        <v>42.33576890323556</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4412,7 +4412,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
         <v>338.874007230231</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742819</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="X3" t="n">
-        <v>611.8519115687491</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="Y3" t="n">
-        <v>404.0916128037952</v>
+        <v>839.7105578442523</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.2175042777675</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>476.2813213498606</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>476.2813213498606</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>328.3682277674675</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>181.4782802695571</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4491,19 +4491,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>1044.590989548924</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>1044.590989548924</v>
       </c>
       <c r="X4" t="n">
-        <v>826.8659691080072</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.8659691080072</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>943.6469137265115</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>677.2692571593335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4655,16 +4655,16 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466806</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1042.860542343668</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1042.860542343668</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1042.860542343668</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>788.1760541377809</v>
       </c>
       <c r="W7" t="n">
-        <v>537.0228411048272</v>
+        <v>521.7983975706029</v>
       </c>
       <c r="X7" t="n">
-        <v>537.0228411048272</v>
+        <v>521.7983975706029</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0228411048272</v>
+        <v>521.7983975706029</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1692.922028516204</v>
+        <v>1586.879446109799</v>
       </c>
       <c r="C8" t="n">
-        <v>1692.922028516204</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.656329909453</v>
+        <v>859.6512305626364</v>
       </c>
       <c r="E8" t="n">
-        <v>948.8680773112089</v>
+        <v>473.8629779643922</v>
       </c>
       <c r="F8" t="n">
-        <v>537.8821725216014</v>
+        <v>62.87707317478464</v>
       </c>
       <c r="G8" t="n">
-        <v>122.1759505132686</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467165</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607408</v>
+        <v>442.1757437607442</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045901</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550207</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661174</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.83001576213</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.83001576213</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.83001576213</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.83001576213</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="W8" t="n">
-        <v>2083.061360492015</v>
+        <v>2435.830015762147</v>
       </c>
       <c r="X8" t="n">
-        <v>2083.061360492015</v>
+        <v>2062.364257501067</v>
       </c>
       <c r="Y8" t="n">
-        <v>1692.922028516204</v>
+        <v>1672.224925525255</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.4887579637194</v>
       </c>
       <c r="K9" t="n">
-        <v>559.90633895727</v>
+        <v>298.0857543148194</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907506</v>
+        <v>592.6217377483018</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865051</v>
+        <v>1208.393778287033</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.59319333762</v>
+        <v>1842.133061471875</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325008</v>
+        <v>2174.019871459265</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789032</v>
+        <v>2421.055229888891</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2536.272628442636</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342794</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>824.4161276034988</v>
+        <v>1087.674010863609</v>
       </c>
       <c r="C10" t="n">
-        <v>655.4799446755919</v>
+        <v>918.7378279357023</v>
       </c>
       <c r="D10" t="n">
-        <v>505.3633052632562</v>
+        <v>768.6211885233665</v>
       </c>
       <c r="E10" t="n">
-        <v>357.450211680863</v>
+        <v>620.7080949409734</v>
       </c>
       <c r="F10" t="n">
-        <v>210.5602641829527</v>
+        <v>473.818147443063</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685554</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685554</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685554</v>
+        <v>51.21125520685587</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380119</v>
+        <v>76.63468308380197</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676577</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368935</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.8653899904057</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634452</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108857</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276034988</v>
+        <v>1524.006963899736</v>
       </c>
       <c r="V10" t="n">
-        <v>824.4161276034988</v>
+        <v>1269.322475693849</v>
       </c>
       <c r="W10" t="n">
-        <v>824.4161276034988</v>
+        <v>1269.322475693849</v>
       </c>
       <c r="X10" t="n">
-        <v>824.4161276034988</v>
+        <v>1269.322475693849</v>
       </c>
       <c r="Y10" t="n">
-        <v>824.4161276034988</v>
+        <v>1269.322475693849</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>114.9565346495158</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9565346495158</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>114.9565346495158</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5904,46 +5904,46 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
         <v>1491.508541327549</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,10 +6016,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,19 +6299,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
         <v>1373.553594266881</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1508.305175991783</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7666,31 +7666,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
         <v>1373.553594266881</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>97.32166909127238</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004334</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538091</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094953</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348527</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462201</v>
       </c>
       <c r="I13" t="n">
-        <v>60.33736343303703</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.979237864359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>73.85777223953465</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380331</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580774</v>
+        <v>390680.0076580818</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606947</v>
+        <v>507909.2320606906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101725</v>
+        <v>95270.23779101831</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555029</v>
+        <v>139261.6527555017</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="G4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10557.0882867812</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26456,10 +26456,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567884</v>
+        <v>92902.86757567918</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316108.9896322882</v>
+        <v>-316108.9896322881</v>
       </c>
       <c r="C6" t="n">
-        <v>363978.990958905</v>
+        <v>363978.9909589048</v>
       </c>
       <c r="D6" t="n">
-        <v>54514.93214877449</v>
+        <v>54514.93214877095</v>
       </c>
       <c r="E6" t="n">
-        <v>45959.71531851507</v>
+        <v>46272.35664744064</v>
       </c>
       <c r="F6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="G6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.588708131</v>
       </c>
       <c r="H6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081306</v>
       </c>
       <c r="I6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="J6" t="n">
-        <v>484869.7929600956</v>
+        <v>485182.4342890167</v>
       </c>
       <c r="K6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="L6" t="n">
-        <v>458598.7095881922</v>
+        <v>458911.3509171127</v>
       </c>
       <c r="M6" t="n">
-        <v>421150.9716837399</v>
+        <v>421463.6130126625</v>
       </c>
       <c r="N6" t="n">
-        <v>553868.9473792095</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="O6" t="n">
-        <v>553868.9473792095</v>
+        <v>554181.588708131</v>
       </c>
       <c r="P6" t="n">
-        <v>553868.9473792093</v>
+        <v>554181.5887081311</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627852</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856942</v>
+        <v>640.1406900856985</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933033</v>
+        <v>319.6474457933069</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788922</v>
+        <v>434.2730407788886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841923</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841923</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841881</v>
+        <v>376.4268100841923</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139541</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>108.3072476105185</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,16 +27463,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>96.09984484496863</v>
+        <v>114.9964476683395</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.10630886780433</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27596,7 +27596,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>241.975758171298</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>259.6345804617511</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>192.8441363578605</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>26.00628954823361</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>298.2418170421784</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>296.5445101216021</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164519619</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164536331</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8.551734725370068</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>175.5826300084497</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>9.152123503497478e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-2.783552356557516e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885566</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546681</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972541</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763202</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354945</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359956</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525092</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307908</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983033</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542139</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864756</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140491</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508452</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035145</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026287</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.744195107943</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502176</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571291</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617178</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152226</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519095</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947599</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463708</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204792</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366409</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.095024154133956</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415891</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772523</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.324098749013</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462356</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.986981004626</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708736</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939806</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307432</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942769</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650355</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543356</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>238.3094620181792</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705678</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313396</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655072</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087228</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559183</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091041</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430338</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797644</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234349</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127631</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884359</v>
+        <v>186.4616124758586</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772549</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>621.991960140133</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>640.1406900856985</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>335.2392020074651</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899235</v>
+        <v>249.5306650804296</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603493</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783605</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873344</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093291</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641537</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254643</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186657</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357671</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228618</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997665</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
